--- a/比特直播课/比特直播课笔记/笔记-C++/2024_11_21 5.内存管理(2) + 6.模板初阶(1).xlsx
+++ b/比特直播课/比特直播课笔记/笔记-C++/2024_11_21 5.内存管理(2) + 6.模板初阶(1).xlsx
@@ -70,6 +70,87 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>590550</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>161925</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>370217</xdr:colOff>
+      <xdr:row>55</xdr:row>
+      <xdr:rowOff>160768</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="图片 1"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1276350" y="333375"/>
+          <a:ext cx="10066667" cy="9257143"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>333375</xdr:colOff>
+      <xdr:row>60</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>103518</xdr:colOff>
+      <xdr:row>96</xdr:row>
+      <xdr:rowOff>94469</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="3" name="图片 2"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1704975" y="10306050"/>
+          <a:ext cx="10057143" cy="6247619"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -361,8 +442,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="U27" sqref="U27"/>
+    <sheetView tabSelected="1" topLeftCell="A40" workbookViewId="0">
+      <selection activeCell="Y60" sqref="Y60"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -370,6 +451,7 @@
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>
 

--- a/比特直播课/比特直播课笔记/笔记-C++/2024_11_21 5.内存管理(2) + 6.模板初阶(1).xlsx
+++ b/比特直播课/比特直播课笔记/笔记-C++/2024_11_21 5.内存管理(2) + 6.模板初阶(1).xlsx
@@ -13,6 +13,31 @@
   </sheets>
   <calcPr calcId="122211"/>
 </workbook>
+</file>
+
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
+  <si>
+    <t>通过汇编可以看到核心过程</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>本来应该开80个字节，（A是8字节），但是多开了4个字节</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>出差错的原因就在这里</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>进入模板的内容</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>语言的进化</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+</sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
@@ -142,6 +167,433 @@
         <a:xfrm>
           <a:off x="1704975" y="10306050"/>
           <a:ext cx="10057143" cy="6247619"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>371475</xdr:colOff>
+      <xdr:row>107</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>208713</xdr:colOff>
+      <xdr:row>128</xdr:row>
+      <xdr:rowOff>123359</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="4" name="图片 3"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2428875" y="18345150"/>
+          <a:ext cx="6695238" cy="3723809"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>571500</xdr:colOff>
+      <xdr:row>131</xdr:row>
+      <xdr:rowOff>123825</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>23</xdr:col>
+      <xdr:colOff>483814</xdr:colOff>
+      <xdr:row>162</xdr:row>
+      <xdr:rowOff>161256</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="5" name="图片 4"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="571500" y="22583775"/>
+          <a:ext cx="15685714" cy="5352381"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>428625</xdr:colOff>
+      <xdr:row>166</xdr:row>
+      <xdr:rowOff>142875</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>75473</xdr:colOff>
+      <xdr:row>188</xdr:row>
+      <xdr:rowOff>85261</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="6" name="图片 5"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId5"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="428625" y="28603575"/>
+          <a:ext cx="5819048" cy="3714286"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>581025</xdr:colOff>
+      <xdr:row>166</xdr:row>
+      <xdr:rowOff>47625</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>27</xdr:col>
+      <xdr:colOff>579482</xdr:colOff>
+      <xdr:row>197</xdr:row>
+      <xdr:rowOff>8865</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="7" name="图片 6"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId6"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6753225" y="28508325"/>
+          <a:ext cx="12342857" cy="5276190"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>85725</xdr:colOff>
+      <xdr:row>203</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>465392</xdr:colOff>
+      <xdr:row>226</xdr:row>
+      <xdr:rowOff>151893</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="8" name="图片 7"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId7"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3514725" y="34842450"/>
+          <a:ext cx="10666667" cy="4057143"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>485775</xdr:colOff>
+      <xdr:row>228</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>23</xdr:col>
+      <xdr:colOff>474622</xdr:colOff>
+      <xdr:row>252</xdr:row>
+      <xdr:rowOff>170914</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="11" name="图片 10"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId8"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3228975" y="39090600"/>
+          <a:ext cx="13019047" cy="4285714"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>76200</xdr:colOff>
+      <xdr:row>256</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>22</xdr:col>
+      <xdr:colOff>74743</xdr:colOff>
+      <xdr:row>287</xdr:row>
+      <xdr:rowOff>161245</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="12" name="图片 11"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId9"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3505200" y="43929300"/>
+          <a:ext cx="11657143" cy="5438095"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>179040</xdr:colOff>
+      <xdr:row>298</xdr:row>
+      <xdr:rowOff>76199</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>30</xdr:col>
+      <xdr:colOff>436628</xdr:colOff>
+      <xdr:row>341</xdr:row>
+      <xdr:rowOff>17836</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="9" name="图片 8"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId10"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="11837640" y="51168299"/>
+          <a:ext cx="9172988" cy="7313987"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>200025</xdr:colOff>
+      <xdr:row>293</xdr:row>
+      <xdr:rowOff>66676</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>476250</xdr:colOff>
+      <xdr:row>342</xdr:row>
+      <xdr:rowOff>51844</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="10" name="图片 9"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId11"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="885825" y="50301526"/>
+          <a:ext cx="7820025" cy="8386218"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>590550</xdr:colOff>
+      <xdr:row>319</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>514350</xdr:colOff>
+      <xdr:row>319</xdr:row>
+      <xdr:rowOff>85725</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="14" name="直接箭头连接符 13"/>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="8820150" y="54768750"/>
+          <a:ext cx="2667000" cy="9525"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="76200">
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent2"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent2"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent2"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>114300</xdr:colOff>
+      <xdr:row>344</xdr:row>
+      <xdr:rowOff>85725</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>93881</xdr:colOff>
+      <xdr:row>391</xdr:row>
+      <xdr:rowOff>75194</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="16" name="图片 15"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId12"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="800100" y="59064525"/>
+          <a:ext cx="10952381" cy="8047619"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -440,14 +892,40 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+  <dimension ref="G128:S362"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A40" workbookViewId="0">
-      <selection activeCell="Y60" sqref="Y60"/>
+    <sheetView tabSelected="1" topLeftCell="A334" workbookViewId="0">
+      <selection activeCell="S365" sqref="S365"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
-  <sheetData/>
+  <sheetData>
+    <row r="128" spans="18:18" x14ac:dyDescent="0.15">
+      <c r="R128" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="200" spans="10:10" x14ac:dyDescent="0.15">
+      <c r="J200" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="202" spans="10:10" x14ac:dyDescent="0.15">
+      <c r="J202" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="292" spans="7:7" x14ac:dyDescent="0.15">
+      <c r="G292" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="362" spans="19:19" x14ac:dyDescent="0.15">
+      <c r="S362" t="s">
+        <v>4</v>
+      </c>
+    </row>
+  </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
